--- a/TOU_analysis.xlsx
+++ b/TOU_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/389d50da7730b885/Documents/TOU_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{F0E87120-3E09-C340-AB62-B85760477DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{849CAE3B-02D6-0142-8AC0-15FE20AEC3E3}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{F0E87120-3E09-C340-AB62-B85760477DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34AB12F5-9F28-1A48-9CB8-D831EA17DABA}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="2540" windowWidth="32160" windowHeight="23820" xr2:uid="{1A87D379-06A0-BC40-A650-8DF4C831EFEF}"/>
   </bookViews>
@@ -225,7 +225,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0.00000_);_(* \(#,##0.00000\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -360,6 +360,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -637,7 +643,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="10" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -714,24 +720,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="9" fillId="3" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="21" fillId="16" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="21" fillId="16" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="22" fillId="16" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="22" fillId="16" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
@@ -1092,7 +1099,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A35" sqref="A35"/>
+      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1595,52 +1602,52 @@
         <v>28</v>
       </c>
       <c r="D21" s="25">
-        <f>SUMPRODUCT(D$7:D$8,D$15:D$16)/SUM(D$15:D$16)*-1</f>
-        <v>-9.6767500000000006E-2</v>
+        <f>SUMPRODUCT(D$7:D$8,D$15:D$16)/SUM(D$15:D$16)</f>
+        <v>9.6767500000000006E-2</v>
       </c>
       <c r="E21" s="25">
-        <f t="shared" ref="E21:O21" si="1">SUMPRODUCT(E$7:E$8,E$15:E$16)/SUM(E$15:E$16)*-1</f>
-        <v>-9.6767500000000006E-2</v>
+        <f t="shared" ref="E21:O21" si="1">SUMPRODUCT(E$7:E$8,E$15:E$16)/SUM(E$15:E$16)</f>
+        <v>9.6767500000000006E-2</v>
       </c>
       <c r="F21" s="25">
         <f t="shared" si="1"/>
-        <v>-9.6767500000000006E-2</v>
+        <v>9.6767500000000006E-2</v>
       </c>
       <c r="G21" s="25">
         <f t="shared" si="1"/>
-        <v>-9.6767500000000006E-2</v>
+        <v>9.6767500000000006E-2</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="1"/>
-        <v>-9.6767500000000006E-2</v>
+        <v>9.6767500000000006E-2</v>
       </c>
       <c r="I21" s="25">
         <f t="shared" si="1"/>
-        <v>-0.11232249999999999</v>
+        <v>0.11232249999999999</v>
       </c>
       <c r="J21" s="25">
         <f t="shared" si="1"/>
-        <v>-0.11232249999999999</v>
+        <v>0.11232249999999999</v>
       </c>
       <c r="K21" s="25">
         <f t="shared" si="1"/>
-        <v>-0.11232249999999999</v>
+        <v>0.11232249999999999</v>
       </c>
       <c r="L21" s="25">
         <f t="shared" si="1"/>
-        <v>-0.11232249999999999</v>
+        <v>0.11232249999999999</v>
       </c>
       <c r="M21" s="25">
         <f t="shared" si="1"/>
-        <v>-9.6767500000000006E-2</v>
+        <v>9.6767500000000006E-2</v>
       </c>
       <c r="N21" s="25">
         <f t="shared" si="1"/>
-        <v>-9.6767500000000006E-2</v>
+        <v>9.6767500000000006E-2</v>
       </c>
       <c r="O21" s="25">
         <f t="shared" si="1"/>
-        <v>-9.6767500000000006E-2</v>
+        <v>9.6767500000000006E-2</v>
       </c>
       <c r="R21" s="1" t="s">
         <v>15</v>
@@ -1654,52 +1661,52 @@
         <v>28</v>
       </c>
       <c r="D22" s="25">
-        <f>D9*-1</f>
-        <v>-8.5699999999999998E-2</v>
+        <f>D9</f>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="E22" s="25">
-        <f t="shared" ref="E22:O22" si="2">E9*-1</f>
-        <v>-8.5699999999999998E-2</v>
+        <f t="shared" ref="E22:O22" si="2">E9</f>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="F22" s="25">
         <f t="shared" si="2"/>
-        <v>-8.5699999999999998E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="G22" s="25">
         <f t="shared" si="2"/>
-        <v>-8.5699999999999998E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="H22" s="25">
         <f t="shared" si="2"/>
-        <v>-8.5699999999999998E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="I22" s="25">
         <f t="shared" si="2"/>
-        <v>-0.1038</v>
+        <v>0.1038</v>
       </c>
       <c r="J22" s="25">
         <f t="shared" si="2"/>
-        <v>-0.1038</v>
+        <v>0.1038</v>
       </c>
       <c r="K22" s="25">
         <f t="shared" si="2"/>
-        <v>-0.1038</v>
+        <v>0.1038</v>
       </c>
       <c r="L22" s="25">
         <f t="shared" si="2"/>
-        <v>-0.1038</v>
+        <v>0.1038</v>
       </c>
       <c r="M22" s="25">
         <f t="shared" si="2"/>
-        <v>-8.5699999999999998E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="N22" s="25">
         <f t="shared" si="2"/>
-        <v>-8.5699999999999998E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
       <c r="O22" s="25">
         <f t="shared" si="2"/>
-        <v>-8.5699999999999998E-2</v>
+        <v>8.5699999999999998E-2</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
@@ -1710,11 +1717,11 @@
         <v>36</v>
       </c>
       <c r="D24" s="26">
-        <f t="shared" ref="D24:O24" si="3">D$21*D$17</f>
+        <f>(D$21*D$17)*-1</f>
         <v>-83.220050000000001</v>
       </c>
       <c r="E24" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E24:O24" si="3">(E$21*E$17)*-1</f>
         <v>-119.5078625</v>
       </c>
       <c r="F24" s="26">
@@ -1773,11 +1780,11 @@
         <v>36</v>
       </c>
       <c r="D25" s="26">
-        <f t="shared" ref="D25:O25" si="4">D$22*D$17</f>
+        <f>D$22*D$17*-1</f>
         <v>-73.701999999999998</v>
       </c>
       <c r="E25" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="E25:O25" si="4">E$22*E$17*-1</f>
         <v>-105.8395</v>
       </c>
       <c r="F25" s="26">
@@ -1829,61 +1836,61 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="58">
         <f t="shared" ref="D26:O26" si="5">D24-D25</f>
         <v>-9.5180500000000023</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="58">
         <f t="shared" si="5"/>
         <v>-13.668362500000001</v>
       </c>
-      <c r="F26" s="57">
+      <c r="F26" s="58">
         <f t="shared" si="5"/>
         <v>-16.291360000000026</v>
       </c>
-      <c r="G26" s="57">
+      <c r="G26" s="58">
         <f t="shared" si="5"/>
         <v>-11.676212500000005</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="58">
         <f t="shared" si="5"/>
         <v>-7.8689925000000045</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="58">
         <f t="shared" si="5"/>
         <v>-4.2953399999999888</v>
       </c>
-      <c r="J26" s="57">
+      <c r="J26" s="58">
         <f t="shared" si="5"/>
         <v>-8.3009149999999892</v>
       </c>
-      <c r="K26" s="57">
+      <c r="K26" s="58">
         <f t="shared" si="5"/>
         <v>-5.624849999999995</v>
       </c>
-      <c r="L26" s="57">
+      <c r="L26" s="58">
         <f t="shared" si="5"/>
         <v>-6.860612500000002</v>
       </c>
-      <c r="M26" s="57">
+      <c r="M26" s="58">
         <f t="shared" si="5"/>
         <v>-8.9646749999999997</v>
       </c>
-      <c r="N26" s="57">
+      <c r="N26" s="58">
         <f t="shared" si="5"/>
         <v>-6.2531375000000082</v>
       </c>
-      <c r="O26" s="57">
+      <c r="O26" s="58">
         <f t="shared" si="5"/>
         <v>-8.278490000000005</v>
       </c>
-      <c r="P26" s="58">
+      <c r="P26" s="59">
         <f>SUM(D26:O26)</f>
         <v>-107.60099750000002</v>
       </c>
@@ -1910,22 +1917,22 @@
       <c r="P27" s="41"/>
     </row>
     <row r="28" spans="2:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
     </row>
     <row r="29" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
@@ -2307,55 +2314,55 @@
       <c r="C42" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="50">
         <f t="shared" ref="D42:O42" si="19">D$39*D$35</f>
         <v>0</v>
       </c>
-      <c r="E42" s="49">
+      <c r="E42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F42" s="49">
+      <c r="F42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G42" s="49">
+      <c r="G42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="H42" s="49">
+      <c r="H42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="I42" s="49">
+      <c r="I42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="J42" s="49">
+      <c r="J42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="K42" s="49">
+      <c r="K42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="L42" s="49">
+      <c r="L42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="M42" s="49">
+      <c r="M42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="N42" s="49">
+      <c r="N42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O42" s="49">
+      <c r="O42" s="50">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="P42" s="50">
+      <c r="P42" s="51">
         <f>SUM(D42:O42)</f>
         <v>0</v>
       </c>
@@ -2364,7 +2371,7 @@
       </c>
     </row>
     <row r="43" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="47" t="str">
+      <c r="B43" s="48" t="str">
         <f>_xlfn.CONCAT("Ref: ",B24)</f>
         <v>Ref: TOU Cost (Rate x Usage)</v>
       </c>
@@ -2372,62 +2379,62 @@
         <f>C24</f>
         <v>$</v>
       </c>
-      <c r="D43" s="48">
+      <c r="D43" s="49">
         <f>D24</f>
         <v>-83.220050000000001</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="49">
         <f>E24</f>
         <v>-119.5078625</v>
       </c>
-      <c r="F43" s="48">
+      <c r="F43" s="49">
         <f>F24</f>
         <v>-142.44176000000002</v>
       </c>
-      <c r="G43" s="48">
+      <c r="G43" s="49">
         <f>G24</f>
         <v>-102.0897125</v>
       </c>
-      <c r="H43" s="48">
+      <c r="H43" s="49">
         <f>H24</f>
         <v>-68.801692500000001</v>
       </c>
-      <c r="I43" s="48">
+      <c r="I43" s="49">
         <f>I24</f>
         <v>-56.610539999999993</v>
       </c>
-      <c r="J43" s="48">
+      <c r="J43" s="49">
         <f>J24</f>
         <v>-109.40211499999999</v>
       </c>
-      <c r="K43" s="48">
+      <c r="K43" s="49">
         <f>K24</f>
         <v>-74.132849999999991</v>
       </c>
-      <c r="L43" s="48">
+      <c r="L43" s="49">
         <f>L24</f>
         <v>-90.419612499999999</v>
       </c>
-      <c r="M43" s="48">
+      <c r="M43" s="49">
         <f>M24</f>
         <v>-78.381675000000001</v>
       </c>
-      <c r="N43" s="48">
+      <c r="N43" s="49">
         <f>N24</f>
         <v>-54.673637500000005</v>
       </c>
-      <c r="O43" s="48">
+      <c r="O43" s="49">
         <f>O24</f>
         <v>-72.382090000000005</v>
       </c>
-      <c r="P43" s="48">
+      <c r="P43" s="49">
         <f>SUM(D43:O43)</f>
         <v>-1052.0635975</v>
       </c>
       <c r="R43" s="45"/>
     </row>
     <row r="44" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="48" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="14"/>
@@ -2492,55 +2499,55 @@
       <c r="C45" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="51">
+      <c r="D45" s="52">
         <f>D$40*D$35</f>
         <v>0</v>
       </c>
-      <c r="E45" s="51">
+      <c r="E45" s="52">
         <f t="shared" ref="E45:O45" si="21">E$40*E$35</f>
         <v>0</v>
       </c>
-      <c r="F45" s="51">
+      <c r="F45" s="52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="G45" s="51">
+      <c r="G45" s="52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H45" s="51">
+      <c r="H45" s="52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I45" s="51">
+      <c r="I45" s="52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J45" s="52">
         <f>J$40*J$35</f>
         <v>0</v>
       </c>
-      <c r="K45" s="51">
+      <c r="K45" s="52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="L45" s="51">
+      <c r="L45" s="52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="M45" s="51">
+      <c r="M45" s="52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="N45" s="51">
+      <c r="N45" s="52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="O45" s="51">
+      <c r="O45" s="52">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="P45" s="51">
+      <c r="P45" s="52">
         <f>SUM(D45:O45)</f>
         <v>0</v>
       </c>
@@ -2549,7 +2556,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="47" t="str">
+      <c r="B46" s="48" t="str">
         <f>_xlfn.CONCAT("Ref: ",B25)</f>
         <v>Ref: Flat Rate Cost (Rate X Usage)</v>
       </c>
@@ -2557,110 +2564,110 @@
         <f>C25</f>
         <v>$</v>
       </c>
-      <c r="D46" s="48">
+      <c r="D46" s="49">
         <f>D25</f>
         <v>-73.701999999999998</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="49">
         <f>E25</f>
         <v>-105.8395</v>
       </c>
-      <c r="F46" s="48">
+      <c r="F46" s="49">
         <f>F25</f>
         <v>-126.15039999999999</v>
       </c>
-      <c r="G46" s="48">
+      <c r="G46" s="49">
         <f>G25</f>
         <v>-90.413499999999999</v>
       </c>
-      <c r="H46" s="48">
+      <c r="H46" s="49">
         <f>H25</f>
         <v>-60.932699999999997</v>
       </c>
-      <c r="I46" s="48">
+      <c r="I46" s="49">
         <f>I25</f>
         <v>-52.315200000000004</v>
       </c>
-      <c r="J46" s="48">
+      <c r="J46" s="49">
         <f>J25</f>
         <v>-101.10120000000001</v>
       </c>
-      <c r="K46" s="48">
+      <c r="K46" s="49">
         <f>K25</f>
         <v>-68.507999999999996</v>
       </c>
-      <c r="L46" s="48">
+      <c r="L46" s="49">
         <f>L25</f>
         <v>-83.558999999999997</v>
       </c>
-      <c r="M46" s="48">
+      <c r="M46" s="49">
         <f>M25</f>
         <v>-69.417000000000002</v>
       </c>
-      <c r="N46" s="48">
+      <c r="N46" s="49">
         <f>N25</f>
         <v>-48.420499999999997</v>
       </c>
-      <c r="O46" s="48">
+      <c r="O46" s="49">
         <f>O25</f>
         <v>-64.1036</v>
       </c>
-      <c r="P46" s="48">
+      <c r="P46" s="49">
         <f>SUM(D46:O46)</f>
         <v>-944.46260000000007</v>
       </c>
       <c r="R46" s="45"/>
     </row>
     <row r="47" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="48" t="s">
         <v>56</v>
       </c>
       <c r="C47" s="14"/>
-      <c r="D47" s="52">
+      <c r="D47" s="53">
         <f>SUM(D45:D46)</f>
         <v>-73.701999999999998</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="53">
         <f t="shared" ref="E47:O47" si="22">SUM(E45:E46)</f>
         <v>-105.8395</v>
       </c>
-      <c r="F47" s="52">
+      <c r="F47" s="53">
         <f t="shared" si="22"/>
         <v>-126.15039999999999</v>
       </c>
-      <c r="G47" s="52">
+      <c r="G47" s="53">
         <f t="shared" si="22"/>
         <v>-90.413499999999999</v>
       </c>
-      <c r="H47" s="52">
+      <c r="H47" s="53">
         <f t="shared" si="22"/>
         <v>-60.932699999999997</v>
       </c>
-      <c r="I47" s="52">
+      <c r="I47" s="53">
         <f t="shared" si="22"/>
         <v>-52.315200000000004</v>
       </c>
-      <c r="J47" s="52">
+      <c r="J47" s="53">
         <f t="shared" si="22"/>
         <v>-101.10120000000001</v>
       </c>
-      <c r="K47" s="52">
+      <c r="K47" s="53">
         <f t="shared" si="22"/>
         <v>-68.507999999999996</v>
       </c>
-      <c r="L47" s="52">
+      <c r="L47" s="53">
         <f t="shared" si="22"/>
         <v>-83.558999999999997</v>
       </c>
-      <c r="M47" s="52">
+      <c r="M47" s="53">
         <f t="shared" si="22"/>
         <v>-69.417000000000002</v>
       </c>
-      <c r="N47" s="52">
+      <c r="N47" s="53">
         <f t="shared" si="22"/>
         <v>-48.420499999999997</v>
       </c>
-      <c r="O47" s="52">
+      <c r="O47" s="53">
         <f t="shared" si="22"/>
         <v>-64.1036</v>
       </c>
@@ -2670,61 +2677,61 @@
       </c>
     </row>
     <row r="48" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="47" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="58">
         <f>D44-D47</f>
         <v>-9.5180500000000023</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E48" s="58">
         <f>E44-E47</f>
         <v>-13.668362500000001</v>
       </c>
-      <c r="F48" s="57">
+      <c r="F48" s="58">
         <f>F44-F47</f>
         <v>-16.291360000000026</v>
       </c>
-      <c r="G48" s="57">
+      <c r="G48" s="58">
         <f>G44-G47</f>
         <v>-11.676212500000005</v>
       </c>
-      <c r="H48" s="57">
+      <c r="H48" s="58">
         <f>H44-H47</f>
         <v>-7.8689925000000045</v>
       </c>
-      <c r="I48" s="57">
+      <c r="I48" s="58">
         <f>I44-I47</f>
         <v>-4.2953399999999888</v>
       </c>
-      <c r="J48" s="57">
+      <c r="J48" s="58">
         <f>J44-J47</f>
         <v>-8.3009149999999892</v>
       </c>
-      <c r="K48" s="57">
+      <c r="K48" s="58">
         <f>K44-K47</f>
         <v>-5.624849999999995</v>
       </c>
-      <c r="L48" s="57">
+      <c r="L48" s="58">
         <f>L44-L47</f>
         <v>-6.860612500000002</v>
       </c>
-      <c r="M48" s="57">
+      <c r="M48" s="58">
         <f>M44-M47</f>
         <v>-8.9646749999999997</v>
       </c>
-      <c r="N48" s="57">
+      <c r="N48" s="58">
         <f>N44-N47</f>
         <v>-6.2531375000000082</v>
       </c>
-      <c r="O48" s="57">
+      <c r="O48" s="58">
         <f>O44-O47</f>
         <v>-8.278490000000005</v>
       </c>
-      <c r="P48" s="59">
+      <c r="P48" s="60">
         <f>P44-P47</f>
         <v>-107.60099749999995</v>
       </c>
@@ -2733,8 +2740,8 @@
         <v>You would save $107.60 by using Flat Rate pricing</v>
       </c>
     </row>
-    <row r="49" spans="2:18" s="53" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="C49" s="54"/>
+    <row r="49" spans="2:18" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C49" s="55"/>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
@@ -2922,10 +2929,10 @@
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D60" s="56"/>
+      <c r="D60" s="57"/>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
-      <c r="D61" s="56"/>
+      <c r="D61" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/TOU_analysis.xlsx
+++ b/TOU_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/389d50da7730b885/Documents/TOU_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{F0E87120-3E09-C340-AB62-B85760477DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34AB12F5-9F28-1A48-9CB8-D831EA17DABA}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="8_{F0E87120-3E09-C340-AB62-B85760477DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4F6B9D5-0157-FF4B-8E74-C379A15DD9CB}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="2540" windowWidth="32160" windowHeight="23820" xr2:uid="{1A87D379-06A0-BC40-A650-8DF4C831EFEF}"/>
+    <workbookView xWindow="1620" yWindow="3180" windowWidth="29620" windowHeight="23820" xr2:uid="{1A87D379-06A0-BC40-A650-8DF4C831EFEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Xcel TOU vs. Flat rate" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="61">
   <si>
     <t>Time Period</t>
   </si>
@@ -83,18 +83,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>this is the effective or blended rate you'd pay per kWh on Time of Use (TOU) pricing</t>
-  </si>
-  <si>
-    <t>gross consumption - aka, the total amount of power your household consumed from the grid and solar if you have it</t>
-  </si>
-  <si>
-    <t>this is what you'd pay on TOU pricing</t>
-  </si>
-  <si>
-    <t>this is what you'd pay with flat rate pricing</t>
-  </si>
-  <si>
     <t>input the total amount of energy your panels should produce for the given month</t>
   </si>
   <si>
@@ -152,9 +140,6 @@
     <t>Flat Rate Cost (Rate X Usage)</t>
   </si>
   <si>
-    <t>Difference (TOU - Flat)</t>
-  </si>
-  <si>
     <t>Cost Comparison</t>
   </si>
   <si>
@@ -213,6 +198,27 @@
   </si>
   <si>
     <t>*** SOLAR OWNERS: Expand the section below. Non-solar users can collapse this section. ***</t>
+  </si>
+  <si>
+    <t>Net Savings with TOU</t>
+  </si>
+  <si>
+    <t>Additional Revenue with TOU</t>
+  </si>
+  <si>
+    <t>Gross consumption - aka, the total amount of power your household consumed from the grid and solar if you have it</t>
+  </si>
+  <si>
+    <t>This is the effective or blended rate you'd pay per kWh on Time of Use (TOU) pricing</t>
+  </si>
+  <si>
+    <t>What you'd pay on TOU pricing</t>
+  </si>
+  <si>
+    <t>What you'd pay with flat rate pricing</t>
+  </si>
+  <si>
+    <t>Your net savings with TOU pricing. Positive = TOU saves you money. Negative = Flat rate saves you money.</t>
   </si>
 </sst>
 </file>
@@ -394,7 +400,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,14 +489,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -626,6 +626,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -737,8 +746,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="22" fillId="16" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="22" fillId="16" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent2" xfId="6" builtinId="34"/>
@@ -756,7 +765,58 @@
     <cellStyle name="Output" xfId="5" builtinId="21"/>
     <cellStyle name="RowLevel_1" xfId="1" builtinId="1" iLevel="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -774,6 +834,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1099,7 +1163,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomRight" activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1115,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="2:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B1" s="46" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="46"/>
       <c r="D1" s="46"/>
@@ -1214,10 +1278,10 @@
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B7" s="34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D7" s="36">
         <v>0.18331</v>
@@ -1256,15 +1320,15 @@
         <v>0.18331</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="35" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="8">
         <v>6.7919999999999994E-2</v>
@@ -1303,15 +1367,15 @@
         <v>6.7919999999999994E-2</v>
       </c>
       <c r="R8" s="44" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" s="10">
         <v>8.5699999999999998E-2</v>
@@ -1350,12 +1414,12 @@
         <v>8.5699999999999998E-2</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="3"/>
@@ -1389,7 +1453,7 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
@@ -1423,10 +1487,10 @@
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="15">
         <v>0.25</v>
@@ -1465,15 +1529,15 @@
         <v>0.25</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" s="16">
         <f>1-D15</f>
@@ -1526,10 +1590,10 @@
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D17" s="17">
         <v>860</v>
@@ -1572,12 +1636,12 @@
         <v>10399</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B19" s="27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -1596,10 +1660,10 @@
     <row r="20" spans="2:18" ht="6.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D21" s="25">
         <f>SUMPRODUCT(D$7:D$8,D$15:D$16)/SUM(D$15:D$16)</f>
@@ -1650,15 +1714,15 @@
         <v>9.6767500000000006E-2</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D22" s="25">
         <f>D9</f>
@@ -1711,10 +1775,10 @@
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B24" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D24" s="26">
         <f>(D$21*D$17)*-1</f>
@@ -1769,15 +1833,15 @@
         <v>-1052.0635975</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B25" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D25" s="26">
         <f>D$22*D$17*-1</f>
@@ -1832,15 +1896,15 @@
         <v>-944.46260000000007</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="47" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D26" s="58">
         <f t="shared" ref="D26:O26" si="5">D24-D25</f>
@@ -1890,13 +1954,12 @@
         <f t="shared" si="5"/>
         <v>-8.278490000000005</v>
       </c>
-      <c r="P26" s="59">
+      <c r="P26" s="60">
         <f>SUM(D26:O26)</f>
         <v>-107.60099750000002</v>
       </c>
-      <c r="R26" s="1" t="str">
-        <f>_xlfn.CONCAT("You would save ",TEXT(ABS(P26),"$#,##0.00")," by using ",IF(P26&gt;0,"Time of Use pricing","Flat Rate pricing"))</f>
-        <v>You would save $107.60 by using Flat Rate pricing</v>
+      <c r="R26" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.2">
@@ -1918,7 +1981,7 @@
     </row>
     <row r="28" spans="2:18" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="56" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="56"/>
@@ -1936,7 +1999,7 @@
     </row>
     <row r="29" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B29" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="20"/>
       <c r="D29" s="3"/>
@@ -1952,7 +2015,7 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
       <c r="R29" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="2:18" s="4" customFormat="1" ht="7" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -1973,7 +2036,7 @@
     </row>
     <row r="31" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" s="27" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="29"/>
@@ -2007,10 +2070,10 @@
     </row>
     <row r="33" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D33" s="15">
         <v>0.1</v>
@@ -2049,15 +2112,15 @@
         <v>0.1</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B34" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D34" s="16">
         <f>1-D33</f>
@@ -2110,59 +2173,59 @@
     </row>
     <row r="35" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D35" s="17">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F35" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G35" s="17">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="H35" s="17">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I35" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J35" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K35" s="17">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="L35" s="17">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="M35" s="17">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N35" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O35" s="17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P35" s="37">
         <f>SUM(D35:O35)</f>
-        <v>0</v>
+        <v>4300</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B37" s="27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="29"/>
@@ -2181,10 +2244,10 @@
     <row r="38" spans="2:18" ht="6.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2"/>
     <row r="39" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B39" s="13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D39" s="25">
         <f t="shared" ref="D39:O39" si="17">SUMPRODUCT(D$7:D$8,D$33:D$34)/SUM(D$33:D$34)</f>
@@ -2237,10 +2300,10 @@
     </row>
     <row r="40" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B40" s="13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D40" s="25">
         <f t="shared" ref="D40:O40" si="18">D9</f>
@@ -2309,65 +2372,65 @@
     </row>
     <row r="42" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B42" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D42" s="50">
         <f t="shared" ref="D42:O42" si="19">D$39*D$35</f>
-        <v>0</v>
+        <v>7.9459</v>
       </c>
       <c r="E42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>15.8918</v>
       </c>
       <c r="F42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>23.837700000000002</v>
       </c>
       <c r="G42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>27.810649999999999</v>
       </c>
       <c r="H42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>31.7836</v>
       </c>
       <c r="I42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>46.116499999999995</v>
       </c>
       <c r="J42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>46.116499999999995</v>
       </c>
       <c r="K42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>50.728149999999999</v>
       </c>
       <c r="L42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>46.116499999999995</v>
       </c>
       <c r="M42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>31.7836</v>
       </c>
       <c r="N42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>23.837700000000002</v>
       </c>
       <c r="O42" s="50">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>15.8918</v>
       </c>
       <c r="P42" s="51">
         <f>SUM(D42:O42)</f>
-        <v>0</v>
+        <v>367.86039999999991</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2435,124 +2498,126 @@
     </row>
     <row r="44" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B44" s="48" t="s">
-        <v>55</v>
-      </c>
-      <c r="C44" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="D44" s="38">
         <f>SUM(D42:D43)</f>
-        <v>-83.220050000000001</v>
+        <v>-75.274150000000006</v>
       </c>
       <c r="E44" s="38">
         <f t="shared" ref="E44:O44" si="20">SUM(E42:E43)</f>
-        <v>-119.5078625</v>
+        <v>-103.6160625</v>
       </c>
       <c r="F44" s="38">
         <f t="shared" si="20"/>
-        <v>-142.44176000000002</v>
+        <v>-118.60406000000002</v>
       </c>
       <c r="G44" s="38">
         <f t="shared" si="20"/>
-        <v>-102.0897125</v>
+        <v>-74.279062500000009</v>
       </c>
       <c r="H44" s="38">
         <f t="shared" si="20"/>
-        <v>-68.801692500000001</v>
+        <v>-37.018092500000002</v>
       </c>
       <c r="I44" s="38">
         <f t="shared" si="20"/>
-        <v>-56.610539999999993</v>
+        <v>-10.494039999999998</v>
       </c>
       <c r="J44" s="38">
         <f t="shared" si="20"/>
-        <v>-109.40211499999999</v>
+        <v>-63.285615</v>
       </c>
       <c r="K44" s="38">
         <f t="shared" si="20"/>
-        <v>-74.132849999999991</v>
+        <v>-23.404699999999991</v>
       </c>
       <c r="L44" s="38">
         <f t="shared" si="20"/>
-        <v>-90.419612499999999</v>
+        <v>-44.303112500000005</v>
       </c>
       <c r="M44" s="38">
         <f t="shared" si="20"/>
-        <v>-78.381675000000001</v>
+        <v>-46.598075000000001</v>
       </c>
       <c r="N44" s="38">
         <f t="shared" si="20"/>
-        <v>-54.673637500000005</v>
+        <v>-30.835937500000004</v>
       </c>
       <c r="O44" s="38">
         <f t="shared" si="20"/>
-        <v>-72.382090000000005</v>
+        <v>-56.490290000000002</v>
       </c>
       <c r="P44" s="39">
         <f>SUM(D44:O44)</f>
-        <v>-1052.0635975</v>
+        <v>-684.20319749999999</v>
       </c>
       <c r="R44" s="45"/>
     </row>
     <row r="45" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B45" s="24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D45" s="52">
         <f>D$40*D$35</f>
-        <v>0</v>
+        <v>8.57</v>
       </c>
       <c r="E45" s="52">
         <f t="shared" ref="E45:O45" si="21">E$40*E$35</f>
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="F45" s="52">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>25.71</v>
       </c>
       <c r="G45" s="52">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>29.995000000000001</v>
       </c>
       <c r="H45" s="52">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>34.28</v>
       </c>
       <c r="I45" s="52">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>51.9</v>
       </c>
       <c r="J45" s="52">
         <f>J$40*J$35</f>
-        <v>0</v>
+        <v>51.9</v>
       </c>
       <c r="K45" s="52">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>57.09</v>
       </c>
       <c r="L45" s="52">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>51.9</v>
       </c>
       <c r="M45" s="52">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>34.28</v>
       </c>
       <c r="N45" s="52">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>25.71</v>
       </c>
       <c r="O45" s="52">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>17.14</v>
       </c>
       <c r="P45" s="52">
         <f>SUM(D45:O45)</f>
-        <v>0</v>
+        <v>405.61499999999995</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
@@ -2620,124 +2685,125 @@
     </row>
     <row r="47" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B47" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="14"/>
+        <v>51</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="D47" s="53">
         <f>SUM(D45:D46)</f>
-        <v>-73.701999999999998</v>
+        <v>-65.132000000000005</v>
       </c>
       <c r="E47" s="53">
         <f t="shared" ref="E47:O47" si="22">SUM(E45:E46)</f>
-        <v>-105.8395</v>
+        <v>-88.6995</v>
       </c>
       <c r="F47" s="53">
         <f t="shared" si="22"/>
-        <v>-126.15039999999999</v>
+        <v>-100.44039999999998</v>
       </c>
       <c r="G47" s="53">
         <f t="shared" si="22"/>
-        <v>-90.413499999999999</v>
+        <v>-60.418499999999995</v>
       </c>
       <c r="H47" s="53">
         <f t="shared" si="22"/>
-        <v>-60.932699999999997</v>
+        <v>-26.652699999999996</v>
       </c>
       <c r="I47" s="53">
         <f t="shared" si="22"/>
-        <v>-52.315200000000004</v>
+        <v>-0.41520000000000579</v>
       </c>
       <c r="J47" s="53">
         <f t="shared" si="22"/>
-        <v>-101.10120000000001</v>
+        <v>-49.201200000000007</v>
       </c>
       <c r="K47" s="53">
         <f t="shared" si="22"/>
-        <v>-68.507999999999996</v>
+        <v>-11.417999999999992</v>
       </c>
       <c r="L47" s="53">
         <f t="shared" si="22"/>
-        <v>-83.558999999999997</v>
+        <v>-31.658999999999999</v>
       </c>
       <c r="M47" s="53">
         <f t="shared" si="22"/>
-        <v>-69.417000000000002</v>
+        <v>-35.137</v>
       </c>
       <c r="N47" s="53">
         <f t="shared" si="22"/>
-        <v>-48.420499999999997</v>
+        <v>-22.710499999999996</v>
       </c>
       <c r="O47" s="53">
         <f t="shared" si="22"/>
-        <v>-64.1036</v>
+        <v>-46.9636</v>
       </c>
       <c r="P47" s="39">
         <f>SUM(D47:O47)</f>
-        <v>-944.46260000000007</v>
-      </c>
-    </row>
-    <row r="48" spans="2:18" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>-538.84760000000006</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" ht="16" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B48" s="47" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D48" s="58">
         <f>D44-D47</f>
-        <v>-9.5180500000000023</v>
+        <v>-10.142150000000001</v>
       </c>
       <c r="E48" s="58">
         <f>E44-E47</f>
-        <v>-13.668362500000001</v>
+        <v>-14.916562499999998</v>
       </c>
       <c r="F48" s="58">
         <f>F44-F47</f>
-        <v>-16.291360000000026</v>
+        <v>-18.163660000000036</v>
       </c>
       <c r="G48" s="58">
         <f>G44-G47</f>
-        <v>-11.676212500000005</v>
+        <v>-13.860562500000015</v>
       </c>
       <c r="H48" s="58">
         <f>H44-H47</f>
-        <v>-7.8689925000000045</v>
+        <v>-10.365392500000006</v>
       </c>
       <c r="I48" s="58">
         <f>I44-I47</f>
-        <v>-4.2953399999999888</v>
+        <v>-10.078839999999992</v>
       </c>
       <c r="J48" s="58">
         <f>J44-J47</f>
-        <v>-8.3009149999999892</v>
+        <v>-14.084414999999993</v>
       </c>
       <c r="K48" s="58">
         <f>K44-K47</f>
-        <v>-5.624849999999995</v>
+        <v>-11.986699999999999</v>
       </c>
       <c r="L48" s="58">
         <f>L44-L47</f>
-        <v>-6.860612500000002</v>
+        <v>-12.644112500000006</v>
       </c>
       <c r="M48" s="58">
         <f>M44-M47</f>
-        <v>-8.9646749999999997</v>
+        <v>-11.461075000000001</v>
       </c>
       <c r="N48" s="58">
         <f>N44-N47</f>
-        <v>-6.2531375000000082</v>
+        <v>-8.1254375000000074</v>
       </c>
       <c r="O48" s="58">
         <f>O44-O47</f>
-        <v>-8.278490000000005</v>
-      </c>
-      <c r="P48" s="60">
+        <v>-9.5266900000000021</v>
+      </c>
+      <c r="P48" s="59">
         <f>P44-P47</f>
-        <v>-107.60099749999995</v>
-      </c>
-      <c r="R48" s="1" t="str">
-        <f>_xlfn.CONCAT("You would save ",TEXT(ABS(P48),"$#,##0.00")," by using ",IF(P48&gt;0,"Time of Use pricing","Flat Rate pricing"))</f>
-        <v>You would save $107.60 by using Flat Rate pricing</v>
+        <v>-145.35559749999993</v>
+      </c>
+      <c r="R48" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="2:18" s="54" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -2745,7 +2811,7 @@
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C50" s="20"/>
       <c r="D50" s="3"/>
@@ -2780,7 +2846,7 @@
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="29"/>
@@ -2815,10 +2881,10 @@
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D54" s="42">
         <f>(D9-D8)/(D7-D8)</f>
@@ -2869,15 +2935,15 @@
         <v>0.15408614264667653</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B55" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D55" s="43">
         <f>1-D54</f>
@@ -2939,6 +3005,14 @@
     <mergeCell ref="B1:O1"/>
     <mergeCell ref="B28:O28"/>
   </mergeCells>
+  <conditionalFormatting sqref="P26 P48">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="R8" r:id="rId1" display="From the Xcel TOU price table &gt;&gt;" xr:uid="{AD355557-59D1-D047-AA38-50BD00F7EAE0}"/>
     <hyperlink ref="B1:O1" r:id="rId2" display="Usage and more information at: https://github.com/alexwelch/xcel-tou-analysis/" xr:uid="{05BD5743-DBD0-A240-8523-22F819082A3F}"/>
